--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sayidimrannazari/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sayidimrannazari/IdeaProjects/CucumberProjectB24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6E45658-E2D6-6E40-8570-3B5065614EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE409DB-C2BA-C542-9E8A-1EA44D48E5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0D090FF7-6379-2A49-80EB-98005A1E4FB7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{0D090FF7-6379-2A49-80EB-98005A1E4FB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
